--- a/tut05/output/0401ME14.xlsx
+++ b/tut05/output/0401ME14.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.448979591836735</v>
+        <v>6.45</v>
       </c>
       <c r="C6" t="n">
-        <v>5.590909090909091</v>
+        <v>5.59</v>
       </c>
       <c r="D6" t="n">
-        <v>6.468085106382978</v>
+        <v>6.47</v>
       </c>
       <c r="E6" t="n">
-        <v>7.040816326530612</v>
+        <v>7.04</v>
       </c>
       <c r="F6" t="n">
-        <v>6.608695652173913</v>
+        <v>6.61</v>
       </c>
       <c r="G6" t="n">
-        <v>7.043478260869565</v>
+        <v>7.04</v>
       </c>
       <c r="H6" t="n">
         <v>8.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.448979591836735</v>
+        <v>6.45</v>
       </c>
       <c r="C8" t="n">
-        <v>6.043010752688172</v>
+        <v>6.04</v>
       </c>
       <c r="D8" t="n">
-        <v>6.185714285714286</v>
+        <v>6.19</v>
       </c>
       <c r="E8" t="n">
-        <v>6.407407407407407</v>
+        <v>6.41</v>
       </c>
       <c r="F8" t="n">
-        <v>6.446808510638298</v>
+        <v>6.45</v>
       </c>
       <c r="G8" t="n">
-        <v>6.544483985765124</v>
+        <v>6.54</v>
       </c>
       <c r="H8" t="n">
-        <v>6.831775700934579</v>
+        <v>6.83</v>
       </c>
       <c r="I8" t="n">
-        <v>6.833795013850415</v>
+        <v>6.83</v>
       </c>
     </row>
   </sheetData>
